--- a/res/tables/minimal_perfomance_characteristics.xlsx
+++ b/res/tables/minimal_perfomance_characteristics.xlsx
@@ -467,28 +467,22 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9000</v>
+        <v>3115200</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.01300077041602465</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0003114430956175877</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.007187242891914367</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.001836655903402738</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>0.0635593220338983</v>
       </c>
     </row>
   </sheetData>
